--- a/data/trans_bre/P26-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P26-Dificultad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.902504902118676</v>
+        <v>4.705951952150692</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.128185669334597</v>
+        <v>2.298263546046944</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.108259043927106</v>
+        <v>-4.648771577892916</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.855622232538458</v>
+        <v>-5.624697652386581</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1330644613624437</v>
+        <v>0.1525765038973641</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05331497467837524</v>
+        <v>0.05811342532990397</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1499501672028407</v>
+        <v>-0.1353492220354133</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2821649616977391</v>
+        <v>-0.2745431224764565</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.26692679626899</v>
+        <v>14.62796764480617</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.90100139956532</v>
+        <v>10.63215288035872</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.628362946210256</v>
+        <v>3.479907618682238</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.543154055668521</v>
+        <v>4.379633773792769</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5959668781976268</v>
+        <v>0.5861956861776978</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3128758025956737</v>
+        <v>0.3040713182977026</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1209861623291238</v>
+        <v>0.1166176249572805</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3255897506328677</v>
+        <v>0.3022674817456682</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>6.764940212278916</v>
+        <v>6.286574418202006</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.128975311127527</v>
+        <v>4.681834910253426</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.964791303337811</v>
+        <v>-2.069296482016385</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.32190736952783</v>
+        <v>1.337515490444788</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2224934028144098</v>
+        <v>0.2062959180613415</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1180710637718132</v>
+        <v>0.1356578248005028</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.07107249332253791</v>
+        <v>-0.07964238954913903</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1305011714215968</v>
+        <v>0.1127860636646046</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>15.31922680906682</v>
+        <v>15.01798929029699</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>13.14966971376003</v>
+        <v>13.29482352927621</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.403288060893765</v>
+        <v>6.832972040403952</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.714149500835951</v>
+        <v>7.617157791675677</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5912334459492647</v>
+        <v>0.5754187783486676</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4302634419704605</v>
+        <v>0.4380303854608024</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2851108494378866</v>
+        <v>0.2982273218785902</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.206273005243123</v>
+        <v>1.115146258405976</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.410821452119905</v>
+        <v>2.210160313589519</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.397613716591749</v>
+        <v>-1.145735621409959</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.729677407177787</v>
+        <v>-3.41429202110759</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.241451050132697</v>
+        <v>-0.01803767846204593</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.0742581355884115</v>
+        <v>0.07100992626054478</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.04292068906847678</v>
+        <v>-0.0342038039564131</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1799164610983227</v>
+        <v>-0.1670866135306815</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.02140450445972531</v>
+        <v>0.002231697479882559</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.62479237624303</v>
+        <v>11.15774024419662</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.14033588162901</v>
+        <v>7.797371282513564</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.889806984687562</v>
+        <v>4.73225603361189</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.063159339180287</v>
+        <v>6.452188897386134</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.371796583151825</v>
+        <v>0.3895420605169952</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3092127983072623</v>
+        <v>0.2970629670395511</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3100127041852677</v>
+        <v>0.2968516946365672</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.6903567365429814</v>
+        <v>0.7915855625029119</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.231018480981607</v>
+        <v>-0.8677409044200675</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-6.603747001723765</v>
+        <v>-7.156759717734938</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.497005485403681</v>
+        <v>-2.27059311499102</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.905022668039303</v>
+        <v>-2.811975179426031</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.03614934497871878</v>
+        <v>-0.03278351400948524</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1933411371090891</v>
+        <v>-0.2081141824779764</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1002960602071714</v>
+        <v>-0.09616173510287186</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2016912172519169</v>
+        <v>-0.1978987512458009</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>12.54901904996438</v>
+        <v>12.24558011598825</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.821925637791958</v>
+        <v>5.805438686580277</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.949923481307319</v>
+        <v>9.582260944726702</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.027261555041028</v>
+        <v>3.746434653265899</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5303358473287529</v>
+        <v>0.4972503284741704</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2073325489465115</v>
+        <v>0.2022444771540742</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.458472341528529</v>
+        <v>0.4950775750117193</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3947799145749769</v>
+        <v>0.3699946270836969</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>1.462229379785235</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2.48647986008918</v>
+        <v>2.486479860089177</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2989988707283553</v>
@@ -1049,7 +1049,7 @@
         <v>0.05786632004561188</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.2215654614710296</v>
+        <v>0.2215654614710294</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>6.156194176965242</v>
+        <v>6.025438864713714</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.535330957503518</v>
+        <v>3.552216714142287</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.8341091625999809</v>
+        <v>-0.9564110180288224</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.7548814421843021</v>
+        <v>0.7467260842012983</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2041992212614474</v>
+        <v>0.2036111908809805</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09990430165099924</v>
+        <v>0.1039608879496962</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.03165248837632439</v>
+        <v>-0.03612614605087382</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.0636773253319465</v>
+        <v>0.05940585622718716</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.93526778875941</v>
+        <v>10.88147159595591</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.310357681774777</v>
+        <v>8.597076794709354</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.713285489399575</v>
+        <v>3.930176758304638</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.130872699923116</v>
+        <v>4.143804839535182</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3965018261780734</v>
+        <v>0.3970468234807278</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2599224276159571</v>
+        <v>0.2742025704615526</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.151852824980699</v>
+        <v>0.1621622230166101</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.4133427766328601</v>
+        <v>0.3974848528827865</v>
       </c>
     </row>
     <row r="19">
